--- a/Zero.Extension.Runtime.Report.DB/src/main/resources/plugins/zero-extension-runtime-report/data/X_APP/app.zero.report.xlsx
+++ b/Zero.Extension.Runtime.Report.DB/src/main/resources/plugins/zero-extension-runtime-report/data/X_APP/app.zero.report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-plugins-extension/Zero.Extension.Runtime.Report.DB/src/main/resources/plugins/zero-extension-runtime-report/data/X_APP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A66AD0-CF79-3645-8C03-4CEF32A3750C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625712FE-8376-1D48-B16E-F364F382F60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38880" yWindow="10140" windowWidth="36200" windowHeight="21140" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="1240" windowWidth="59840" windowHeight="37440" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-APP" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>code</t>
   </si>
@@ -145,6 +145,28 @@
   <si>
     <t>zero.rsm</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用密钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用随机标识（64位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appSecret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F114A8377925F4048DF15FDB438E430</t>
+  </si>
+  <si>
+    <t>qR0kY5dA0bD0nA1aP6tZ2gZ9xR8vI8pG3nL1jO1fK6dL4mW7dX6xD8dX4vB7cA1l</t>
   </si>
 </sst>
 </file>
@@ -301,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,11 +374,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -676,7 +699,7 @@
   <dimension ref="A4:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="21"/>
@@ -691,7 +714,9 @@
     <col min="8" max="8" width="24.5" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="22" style="6"/>
+    <col min="11" max="11" width="22" style="6"/>
+    <col min="12" max="12" width="51.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="99" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="22" style="3"/>
   </cols>
   <sheetData>
@@ -702,19 +727,19 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1">
       <c r="A5" s="4" t="s">
@@ -750,8 +775,12 @@
       <c r="K5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="L5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1">
@@ -788,8 +817,12 @@
       <c r="K6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="L6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14">
@@ -826,8 +859,12 @@
       <c r="K7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="M9" s="3"/>
@@ -1013,7 +1050,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
